--- a/target/tangsel/Analisis_Digitalisasi_Tangsel.xlsx
+++ b/target/tangsel/Analisis_Digitalisasi_Tangsel.xlsx
@@ -539,28 +539,28 @@
         </is>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>43.97</v>
+        <v>44.25</v>
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
@@ -583,28 +583,28 @@
         </is>
       </c>
       <c r="D3" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>43.33</v>
+        <v>43.6</v>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
@@ -627,28 +627,28 @@
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>43.14</v>
+        <v>43.46</v>
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
@@ -674,25 +674,25 @@
         <v>14</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>927</v>
+        <v>944</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>42.82</v>
+        <v>43.6</v>
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
@@ -715,28 +715,28 @@
         </is>
       </c>
       <c r="D6" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>948</v>
+        <v>962</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>43.79</v>
+        <v>44.43</v>
       </c>
       <c r="L6" s="4" t="inlineStr">
         <is>
@@ -762,25 +762,25 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>43.42</v>
+        <v>43.51</v>
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
@@ -806,25 +806,25 @@
         <v>9</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>87</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>43.23</v>
+        <v>43.65</v>
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
@@ -850,25 +850,25 @@
         <v>11</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>26</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>949</v>
+        <v>963</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>43.83</v>
+        <v>44.48</v>
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
@@ -894,25 +894,25 @@
         <v>9</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>43.14</v>
+        <v>43.51</v>
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
@@ -935,28 +935,28 @@
         </is>
       </c>
       <c r="D11" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>24</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>43.79</v>
+        <v>44.25</v>
       </c>
       <c r="L11" s="4" t="inlineStr">
         <is>
@@ -979,28 +979,28 @@
         </is>
       </c>
       <c r="D12" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>957</v>
+        <v>970</v>
       </c>
       <c r="J12" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>44.2</v>
+        <v>44.8</v>
       </c>
       <c r="L12" s="4" t="inlineStr">
         <is>
